--- a/src/test/java/integrationtest/order/OrderIntegrationTestData.xlsx
+++ b/src/test/java/integrationtest/order/OrderIntegrationTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romadonz/Documents/Zanuar/DANA/Hands On Project/DANA Pulsa/Automation Testing/DanaPulsaAutomationTest/src/test/java/integrationtest/order/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1600AA5D-B026-5146-BD98-07A7841C2352}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4294D767-0AF3-3E47-B39B-BD769088F7C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" activeTab="1" xr2:uid="{0BFCFD56-4938-304E-8F8D-A74A800CA122}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" xr2:uid="{0BFCFD56-4938-304E-8F8D-A74A800CA122}"/>
   </bookViews>
   <sheets>
     <sheet name="Get All Catalog" sheetId="2" r:id="rId1"/>
@@ -542,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A09F2C92-1070-F549-ABD8-21E67EECDFEF}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -639,7 +639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A9DB414-D404-9B43-88E0-9E486045AF39}">
   <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
